--- a/opdracht/flower.xlsx
+++ b/opdracht/flower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\database-design\opdracht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1EAFF0-DC59-42DA-A5FE-D22BD1759396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDAAD0-0C21-4D57-B245-8E31E569A798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E0DB10F-6FC8-422F-ADC8-16F23FC97844}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>0NV</t>
   </si>
@@ -139,6 +139,27 @@
   </si>
   <si>
     <t>gegevens_id</t>
+  </si>
+  <si>
+    <t>prijs</t>
+  </si>
+  <si>
+    <t>Bestellingen</t>
+  </si>
+  <si>
+    <t>bedrijf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> naam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nummer</t>
   </si>
 </sst>
 </file>
@@ -206,16 +227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26616</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -244,7 +265,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7620"/>
+          <a:off x="937260" y="822960"/>
           <a:ext cx="3063240" cy="3493716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -256,16 +277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>922353</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68913</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>310415</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>348515</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -294,7 +315,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10173033" y="4617720"/>
+          <a:off x="7140273" y="4922520"/>
           <a:ext cx="3548582" cy="2430779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -606,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A1AAA-8AC3-4842-A079-F0A55C2881C3}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,52 +934,44 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -967,12 +980,9 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -981,30 +991,27 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E35" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
         <v>31</v>
       </c>
     </row>
